--- a/CucumberSeleniumPOMDemo/test-output/Excel/ExtentExcel.xlsx
+++ b/CucumberSeleniumPOMDemo/test-output/Excel/ExtentExcel.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="99">
   <si>
     <t>Duration</t>
   </si>
@@ -277,76 +277,85 @@
     <t>device</t>
   </si>
   <si>
-    <t>Mar 17, 2025 12:41:05 PM</t>
-  </si>
-  <si>
-    <t>Mar 17, 2025 12:39:54 PM</t>
-  </si>
-  <si>
-    <t>Mar 17, 2025 12:41:01 PM</t>
-  </si>
-  <si>
-    <t>1 m 7.248 s</t>
+    <t>Mar 17, 2025 1:48:04 PM</t>
+  </si>
+  <si>
+    <t>Mar 17, 2025 1:47:27 PM</t>
+  </si>
+  <si>
+    <t>Mar 17, 2025 1:47:59 PM</t>
+  </si>
+  <si>
+    <t>32.567 s</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>84%</t>
+  </si>
+  <si>
+    <t>Login page feature</t>
+  </si>
+  <si>
+    <t>Account Page Feature</t>
+  </si>
+  <si>
+    <t>Login with correct credentials</t>
+  </si>
+  <si>
+    <t>Accounts page title</t>
+  </si>
+  <si>
+    <t>14.420 s</t>
+  </si>
+  <si>
+    <t>Accounts section count</t>
+  </si>
+  <si>
+    <t>10.523 s</t>
+  </si>
+  <si>
+    <t>Login page title</t>
+  </si>
+  <si>
+    <t>6.237 s</t>
+  </si>
+  <si>
+    <t>Forgot Password link</t>
+  </si>
+  <si>
+    <t>4.753 s</t>
+  </si>
+  <si>
+    <t>13.365 s</t>
+  </si>
+  <si>
+    <t>7.149 s</t>
+  </si>
+  <si>
+    <t>13.778 s</t>
+  </si>
+  <si>
+    <t>10.902 s</t>
+  </si>
+  <si>
+    <t>24.949 s</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>31.526 s</t>
+  </si>
+  <si>
+    <t>24.696 s</t>
   </si>
   <si>
     <t>50%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>96%</t>
-  </si>
-  <si>
-    <t>Login page feature</t>
-  </si>
-  <si>
-    <t>Login with correct credentials</t>
-  </si>
-  <si>
-    <t>Accounts page title</t>
-  </si>
-  <si>
-    <t>32.035 s</t>
-  </si>
-  <si>
-    <t>Account Page Feature</t>
-  </si>
-  <si>
-    <t>Accounts section count</t>
-  </si>
-  <si>
-    <t>9.748 s</t>
-  </si>
-  <si>
-    <t>Login page title</t>
-  </si>
-  <si>
-    <t>3.508 s</t>
-  </si>
-  <si>
-    <t>Forgot Password link</t>
-  </si>
-  <si>
-    <t>3.985 s</t>
-  </si>
-  <si>
-    <t>9.386 s</t>
-  </si>
-  <si>
-    <t>7.397 s</t>
-  </si>
-  <si>
-    <t>41.819 s</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>24.291 s</t>
-  </si>
-  <si>
-    <t>75%</t>
   </si>
   <si>
     <t>And Account page title should be "Compare B2B Software, Download, &amp; Develop Open Source &amp; Business Software - SourceForge"</t>
@@ -357,6 +366,39 @@
 	at org.junit.Assert.assertEquals(Assert.java:146)
 	at steps.LoginPageStepDefinitions.Account_page_title_should_be(LoginPageStepDefinitions.java:64)
 	at ✽.Account page title should be "Compare B2B Software, Download, &amp; Develop Open Source &amp; Business Software - SourceForge"(file:///C:/Users/ssais/git/CucumberSeleniumPOMDemo/CucumberSeleniumPOMDemo/src/test/resources/features/LoginPage.feature:17)
+</t>
+  </si>
+  <si>
+    <t>Given user has already logged in to application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;a href="/auth/preferences/"&gt;...&lt;/a&gt; is not clickable at point (66, 23). Other element would receive the click: &lt;img src="//a.fsdn.com/con/images/sandiego/sf-logo-full.svg" alt="SourceForge logo" class="sf-logo-full"&gt;
+  (Session info: chrome=134.0.6998.89)
+Build info: version: '4.29.0', revision: '5fc1ec94cb'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.11'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [5559ffffef1535eed186e29c3c65a597, clickElement {id=f.C8B67DD44A082D5ABE4CDB7C2EB8F83A.d.F7030C847781BD595EB946F43A64C0D2.e.48}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 134.0.6998.89, chrome: {chromedriverVersion: 134.0.6998.88 (7e3d5c978c6d..., userDataDir: C:\Users\ssais\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64591}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:64591/devtoo..., se:cdpVersion: 134.0.6998.89, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on windows (5559ffffef1535eed186e29c3c65a597)] -&gt; xpath: //ul[@id='account-menu']//a[normalize-space()='Account Settings']]
+Session ID: 5559ffffef1535eed186e29c3c65a597
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:77)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstanceWithCaller(Constructor.java:499)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:480)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:545)
+	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
+	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
+	at com.pageObjects.LoginPage.clickOnaccountSettings(LoginPage.java:60)
+	at com.pageObjects.LoginPage.doLogin(LoginPage.java:69)
+	at steps.AccountsPageStepDefinition.user_has_already_logged_in_to_application(AccountsPageStepDefinition.java:27)
+	at ✽.user has already logged in to application(file:///C:/Users/ssais/git/CucumberSeleniumPOMDemo/CucumberSeleniumPOMDemo/src/test/resources/features/AccountsPage.feature:4)
 </t>
   </si>
 </sst>
@@ -1046,22 +1088,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$20</c:f>
+              <c:f>'DB Data'!$H$20:$H$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Login page feature</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Account Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$J$20</c:f>
+              <c:f>'DB Data'!$J$20:$J$21</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,18 +1167,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$20</c:f>
+              <c:f>'DB Data'!$H$20:$H$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Login page feature</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Account Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$L$20</c:f>
+              <c:f>'DB Data'!$L$20:$L$21</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1187,21 +1238,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$20</c:f>
+              <c:f>'DB Data'!$H$20:$H$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Login page feature</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Account Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$K$20</c:f>
+              <c:f>'DB Data'!$K$20:$K$21</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2383,20 +2440,23 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Login with correct credentials</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Accounts page title</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$R$20</c:f>
+              <c:f>'DB Data'!$R$20:$R$21</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -2456,19 +2516,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Login with correct credentials</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Accounts page title</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$T$20</c:f>
-              <c:numCache/>
+              <c:f>'DB Data'!$T$20:$T$21</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2524,21 +2592,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Login with correct credentials</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Accounts page title</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$S$20</c:f>
+              <c:f>'DB Data'!$S$20:$S$21</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3504,9 +3578,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$27</c:f>
+              <c:f>Scenarios!$B$22:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Accounts page title</c:v>
                 </c:pt>
@@ -3524,15 +3598,21 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Login with correct credentials</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Accounts page title</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Accounts section count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22:$H$27</c:f>
+              <c:f>Scenarios!$H$22:$H$29</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3549,6 +3629,9 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3606,9 +3689,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$27</c:f>
+              <c:f>Scenarios!$B$22:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Accounts page title</c:v>
                 </c:pt>
@@ -3626,14 +3709,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Login with correct credentials</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Accounts page title</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Accounts section count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22:$J$27</c:f>
-              <c:numCache/>
+              <c:f>Scenarios!$J$22:$J$29</c:f>
+              <c:numCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3698,9 +3792,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$27</c:f>
+              <c:f>Scenarios!$B$22:$B$29</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Accounts page title</c:v>
                 </c:pt>
@@ -3718,16 +3812,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Login with correct credentials</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Accounts page title</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Accounts section count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22:$I$27</c:f>
+              <c:f>Scenarios!$I$22:$I$29</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4530,28 +4633,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$23</c:f>
+              <c:f>Features!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Account Page Feature</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Login page feature</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Account Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$22:$F$23</c:f>
+              <c:f>Features!$F$22:$F$24</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4608,21 +4717,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$23</c:f>
+              <c:f>Features!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Account Page Feature</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Login page feature</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Account Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$22:$H$23</c:f>
+              <c:f>Features!$H$22:$H$24</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -4678,24 +4790,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$23</c:f>
+              <c:f>Features!$B$22:$B$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Account Page Feature</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Login page feature</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Account Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$22:$G$23</c:f>
+              <c:f>Features!$G$22:$G$24</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8299,7 +8417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B37:G39"/>
+  <dimension ref="B37:G40"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -8344,20 +8462,38 @@
         <v>41</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F39" s="69"/>
       <c r="G39" s="72" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="40">
+      <c r="B40" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="69"/>
+      <c r="G40" s="72" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="true" password="C44D" scenarios="true" objects="true"/>
-  <mergeCells count="4">
+  <sheetProtection sheet="true" password="F97F" scenarios="true" objects="true"/>
+  <mergeCells count="6">
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E39:F39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8367,7 +8503,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:J27"/>
+  <dimension ref="B20:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -8433,16 +8569,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" s="74" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F22" s="74" t="s">
         <v>49</v>
@@ -8467,7 +8603,7 @@
         <v>81</v>
       </c>
       <c r="E23" s="73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F23" s="74" t="s">
         <v>49</v>
@@ -8533,7 +8669,7 @@
     </row>
     <row r="26">
       <c r="B26" s="73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="74" t="s">
         <v>49</v>
@@ -8558,7 +8694,7 @@
     </row>
     <row r="27">
       <c r="B27" s="73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" s="72" t="s">
         <v>41</v>
@@ -8582,6 +8718,58 @@
         <v>1.0</v>
       </c>
       <c r="J27" s="78"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H28" s="76"/>
+      <c r="I28" s="77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J28" s="78" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="70" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H29" s="76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I29" s="77"/>
+      <c r="J29" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8597,7 +8785,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B18:M23"/>
+  <dimension ref="B18:M24"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -8677,13 +8865,13 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="73" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C22" s="74" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E22" s="70" t="n">
         <v>2.0</v>
@@ -8694,7 +8882,7 @@
       <c r="G22" s="77"/>
       <c r="H22" s="78"/>
       <c r="I22" s="79" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J22" s="70" t="n">
         <v>8.0</v>
@@ -8713,7 +8901,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E23" s="70" t="n">
         <v>4.0</v>
@@ -8726,7 +8914,7 @@
       </c>
       <c r="H23" s="78"/>
       <c r="I23" s="79" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="J23" s="70" t="n">
         <v>15.0</v>
@@ -8738,6 +8926,42 @@
         <v>1.0</v>
       </c>
       <c r="M23" s="78"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F24" s="76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="78"/>
+      <c r="I24" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K24" s="76" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L24" s="77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="M24" s="78" t="n">
+        <v>3.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8753,7 +8977,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
@@ -8787,17 +9011,31 @@
         <v>75</v>
       </c>
       <c r="C3" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>93</v>
+      <c r="C4" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="9E7D" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="C5F9" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8859,13 +9097,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8879,19 +9117,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8912,7 +9150,9 @@
       <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4" s="0"/>
+      <c r="H4" t="n" s="0">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
@@ -8926,21 +9166,21 @@
       </c>
       <c r="D5" t="n" s="0">
         <f>SUM(D2:D4)</f>
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
         <f>SUM(F2:F4)</f>
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>23.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9042,7 +9282,7 @@
       </c>
       <c r="L20" s="70"/>
       <c r="P20" s="69" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="69" t="s">
         <v>41</v>
@@ -9054,6 +9294,34 @@
         <v>1.0</v>
       </c>
       <c r="T20" s="70"/>
+    </row>
+    <row r="21">
+      <c r="H21" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K21" s="70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L21" s="70"/>
+      <c r="P21" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T21" s="70" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>

--- a/CucumberSeleniumPOMDemo/test-output/Excel/ExtentExcel.xlsx
+++ b/CucumberSeleniumPOMDemo/test-output/Excel/ExtentExcel.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="94">
   <si>
     <t>Duration</t>
   </si>
@@ -277,85 +277,76 @@
     <t>device</t>
   </si>
   <si>
-    <t>Mar 17, 2025 1:48:04 PM</t>
-  </si>
-  <si>
-    <t>Mar 17, 2025 1:47:27 PM</t>
-  </si>
-  <si>
-    <t>Mar 17, 2025 1:47:59 PM</t>
-  </si>
-  <si>
-    <t>32.567 s</t>
-  </si>
-  <si>
-    <t>33%</t>
+    <t>Mar 17, 2025 2:14:15 PM</t>
+  </si>
+  <si>
+    <t>Mar 17, 2025 2:13:40 PM</t>
+  </si>
+  <si>
+    <t>Mar 17, 2025 2:14:10 PM</t>
+  </si>
+  <si>
+    <t>30.379 s</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>Login page feature</t>
+  </si>
+  <si>
+    <t>Login with correct credentials</t>
+  </si>
+  <si>
+    <t>Accounts page title</t>
+  </si>
+  <si>
+    <t>16.354 s</t>
+  </si>
+  <si>
+    <t>Account Page Feature</t>
+  </si>
+  <si>
+    <t>Accounts section count</t>
+  </si>
+  <si>
+    <t>9.400 s</t>
+  </si>
+  <si>
+    <t>Login page title</t>
+  </si>
+  <si>
+    <t>6.423 s</t>
+  </si>
+  <si>
+    <t>Forgot Password link</t>
+  </si>
+  <si>
+    <t>5.498 s</t>
+  </si>
+  <si>
+    <t>10.286 s</t>
+  </si>
+  <si>
+    <t>6.972 s</t>
+  </si>
+  <si>
+    <t>25.760 s</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>29.248 s</t>
   </si>
   <si>
     <t>75%</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>Login page feature</t>
-  </si>
-  <si>
-    <t>Account Page Feature</t>
-  </si>
-  <si>
-    <t>Login with correct credentials</t>
-  </si>
-  <si>
-    <t>Accounts page title</t>
-  </si>
-  <si>
-    <t>14.420 s</t>
-  </si>
-  <si>
-    <t>Accounts section count</t>
-  </si>
-  <si>
-    <t>10.523 s</t>
-  </si>
-  <si>
-    <t>Login page title</t>
-  </si>
-  <si>
-    <t>6.237 s</t>
-  </si>
-  <si>
-    <t>Forgot Password link</t>
-  </si>
-  <si>
-    <t>4.753 s</t>
-  </si>
-  <si>
-    <t>13.365 s</t>
-  </si>
-  <si>
-    <t>7.149 s</t>
-  </si>
-  <si>
-    <t>13.778 s</t>
-  </si>
-  <si>
-    <t>10.902 s</t>
-  </si>
-  <si>
-    <t>24.949 s</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>31.526 s</t>
-  </si>
-  <si>
-    <t>24.696 s</t>
-  </si>
-  <si>
-    <t>50%</t>
   </si>
   <si>
     <t>And Account page title should be "Compare B2B Software, Download, &amp; Develop Open Source &amp; Business Software - SourceForge"</t>
@@ -366,39 +357,6 @@
 	at org.junit.Assert.assertEquals(Assert.java:146)
 	at steps.LoginPageStepDefinitions.Account_page_title_should_be(LoginPageStepDefinitions.java:64)
 	at ✽.Account page title should be "Compare B2B Software, Download, &amp; Develop Open Source &amp; Business Software - SourceForge"(file:///C:/Users/ssais/git/CucumberSeleniumPOMDemo/CucumberSeleniumPOMDemo/src/test/resources/features/LoginPage.feature:17)
-</t>
-  </si>
-  <si>
-    <t>Given user has already logged in to application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;a href="/auth/preferences/"&gt;...&lt;/a&gt; is not clickable at point (66, 23). Other element would receive the click: &lt;img src="//a.fsdn.com/con/images/sandiego/sf-logo-full.svg" alt="SourceForge logo" class="sf-logo-full"&gt;
-  (Session info: chrome=134.0.6998.89)
-Build info: version: '4.29.0', revision: '5fc1ec94cb'
-System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.11'
-Driver info: org.openqa.selenium.chrome.ChromeDriver
-Command: [5559ffffef1535eed186e29c3c65a597, clickElement {id=f.C8B67DD44A082D5ABE4CDB7C2EB8F83A.d.F7030C847781BD595EB946F43A64C0D2.e.48}]
-Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 134.0.6998.89, chrome: {chromedriverVersion: 134.0.6998.88 (7e3d5c978c6d..., userDataDir: C:\Users\ssais\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:64591}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:64591/devtoo..., se:cdpVersion: 134.0.6998.89, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
-Element: [[ChromeDriver: chrome on windows (5559ffffef1535eed186e29c3c65a597)] -&gt; xpath: //ul[@id='account-menu']//a[normalize-space()='Account Settings']]
-Session ID: 5559ffffef1535eed186e29c3c65a597
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
-	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:77)
-	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
-	at java.base/java.lang.reflect.Constructor.newInstanceWithCaller(Constructor.java:499)
-	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:480)
-	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
-	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
-	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
-	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
-	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:545)
-	at org.openqa.selenium.remote.RemoteWebElement.execute(RemoteWebElement.java:223)
-	at org.openqa.selenium.remote.RemoteWebElement.click(RemoteWebElement.java:76)
-	at com.pageObjects.LoginPage.clickOnaccountSettings(LoginPage.java:60)
-	at com.pageObjects.LoginPage.doLogin(LoginPage.java:69)
-	at steps.AccountsPageStepDefinition.user_has_already_logged_in_to_application(AccountsPageStepDefinition.java:27)
-	at ✽.user has already logged in to application(file:///C:/Users/ssais/git/CucumberSeleniumPOMDemo/CucumberSeleniumPOMDemo/src/test/resources/features/AccountsPage.feature:4)
 </t>
   </si>
 </sst>
@@ -1088,28 +1046,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$20:$H$21</c:f>
+              <c:f>'DB Data'!$H$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Login page feature</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Account Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$J$20:$J$21</c:f>
+              <c:f>'DB Data'!$J$20</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,21 +1119,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$20:$H$21</c:f>
+              <c:f>'DB Data'!$H$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Login page feature</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Account Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$L$20:$L$21</c:f>
+              <c:f>'DB Data'!$L$20</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -1238,27 +1187,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$H$20:$H$21</c:f>
+              <c:f>'DB Data'!$H$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Login page feature</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Account Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$K$20:$K$21</c:f>
+              <c:f>'DB Data'!$K$20</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2440,23 +2383,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20:$P$21</c:f>
+              <c:f>'DB Data'!$P$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Login with correct credentials</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Accounts page title</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$R$20:$R$21</c:f>
+              <c:f>'DB Data'!$R$20</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -2516,27 +2456,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20:$P$21</c:f>
+              <c:f>'DB Data'!$P$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Login with correct credentials</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Accounts page title</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$T$20:$T$21</c:f>
-              <c:numCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'DB Data'!$T$20</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2592,27 +2524,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20:$P$21</c:f>
+              <c:f>'DB Data'!$P$20</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Login with correct credentials</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Accounts page title</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$S$20:$S$21</c:f>
+              <c:f>'DB Data'!$S$20</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3578,9 +3504,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$29</c:f>
+              <c:f>Scenarios!$B$22:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Accounts page title</c:v>
                 </c:pt>
@@ -3598,21 +3524,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Login with correct credentials</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Accounts page title</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Accounts section count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22:$H$29</c:f>
+              <c:f>Scenarios!$H$22:$H$27</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4.0</c:v>
                 </c:pt>
@@ -3629,9 +3549,6 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3689,9 +3606,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$29</c:f>
+              <c:f>Scenarios!$B$22:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Accounts page title</c:v>
                 </c:pt>
@@ -3709,25 +3626,14 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Login with correct credentials</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Accounts page title</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Accounts section count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22:$J$29</c:f>
-              <c:numCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="6">
-                  <c:v>3.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Scenarios!$J$22:$J$27</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3792,9 +3698,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$29</c:f>
+              <c:f>Scenarios!$B$22:$B$27</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Accounts page title</c:v>
                 </c:pt>
@@ -3812,25 +3718,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Login with correct credentials</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Accounts page title</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Accounts section count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22:$I$29</c:f>
+              <c:f>Scenarios!$I$22:$I$27</c:f>
               <c:numCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4633,34 +4530,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$24</c:f>
+              <c:f>Features!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Account Page Feature</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Login page feature</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Account Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$22:$F$24</c:f>
+              <c:f>Features!$F$22:$F$23</c:f>
               <c:numCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4717,24 +4608,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$24</c:f>
+              <c:f>Features!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Account Page Feature</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Login page feature</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Account Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$22:$H$24</c:f>
+              <c:f>Features!$H$22:$H$23</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -4790,30 +4678,24 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$24</c:f>
+              <c:f>Features!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Account Page Feature</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Login page feature</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Account Page Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$22:$G$24</c:f>
+              <c:f>Features!$G$22:$G$23</c:f>
               <c:numCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8417,7 +8299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B37:G40"/>
+  <dimension ref="B37:G39"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -8462,38 +8344,20 @@
         <v>41</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F39" s="69"/>
       <c r="G39" s="72" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="F40" s="69"/>
-      <c r="G40" s="72" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection sheet="true" password="F97F" scenarios="true" objects="true"/>
-  <mergeCells count="6">
+  <sheetProtection sheet="true" password="94DF" scenarios="true" objects="true"/>
+  <mergeCells count="4">
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E39:F39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8503,7 +8367,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:J29"/>
+  <dimension ref="B20:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -8569,16 +8433,16 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="74" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="73" t="s">
         <v>79</v>
-      </c>
-      <c r="E22" s="73" t="s">
-        <v>76</v>
       </c>
       <c r="F22" s="74" t="s">
         <v>49</v>
@@ -8603,7 +8467,7 @@
         <v>81</v>
       </c>
       <c r="E23" s="73" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F23" s="74" t="s">
         <v>49</v>
@@ -8669,7 +8533,7 @@
     </row>
     <row r="26">
       <c r="B26" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="74" t="s">
         <v>49</v>
@@ -8694,7 +8558,7 @@
     </row>
     <row r="27">
       <c r="B27" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="72" t="s">
         <v>41</v>
@@ -8718,58 +8582,6 @@
         <v>1.0</v>
       </c>
       <c r="J27" s="78"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="70" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H28" s="76"/>
-      <c r="I28" s="77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J28" s="78" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="70" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H29" s="76" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I29" s="77"/>
-      <c r="J29" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8785,7 +8597,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B18:M24"/>
+  <dimension ref="B18:M23"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -8865,13 +8677,13 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="73" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" s="74" t="s">
         <v>49</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E22" s="70" t="n">
         <v>2.0</v>
@@ -8882,7 +8694,7 @@
       <c r="G22" s="77"/>
       <c r="H22" s="78"/>
       <c r="I22" s="79" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J22" s="70" t="n">
         <v>8.0</v>
@@ -8901,7 +8713,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" s="70" t="n">
         <v>4.0</v>
@@ -8914,7 +8726,7 @@
       </c>
       <c r="H23" s="78"/>
       <c r="I23" s="79" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="J23" s="70" t="n">
         <v>15.0</v>
@@ -8926,42 +8738,6 @@
         <v>1.0</v>
       </c>
       <c r="M23" s="78"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="70" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F24" s="76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H24" s="78"/>
-      <c r="I24" s="79" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="70" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K24" s="76" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L24" s="77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M24" s="78" t="n">
-        <v>3.0</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8977,7 +8753,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
@@ -9011,31 +8787,17 @@
         <v>75</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="C5F9" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="E0A5" scenarios="true" objects="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9097,13 +8859,13 @@
         <v>9</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9117,19 +8879,19 @@
         <v>2</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9150,9 +8912,7 @@
       <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4" t="n" s="0">
-        <v>3.0</v>
-      </c>
+      <c r="H4" s="0"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
@@ -9166,21 +8926,21 @@
       </c>
       <c r="D5" t="n" s="0">
         <f>SUM(D2:D4)</f>
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
         <f>SUM(F2:F4)</f>
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -9282,7 +9042,7 @@
       </c>
       <c r="L20" s="70"/>
       <c r="P20" s="69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="69" t="s">
         <v>41</v>
@@ -9294,34 +9054,6 @@
         <v>1.0</v>
       </c>
       <c r="T20" s="70"/>
-    </row>
-    <row r="21">
-      <c r="H21" s="69" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="K21" s="70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L21" s="70"/>
-      <c r="P21" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q21" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T21" s="70" t="n">
-        <v>3.0</v>
-      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>

--- a/CucumberSeleniumPOMDemo/test-output/Excel/ExtentExcel.xlsx
+++ b/CucumberSeleniumPOMDemo/test-output/Excel/ExtentExcel.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="83">
   <si>
     <t>Duration</t>
   </si>
@@ -277,86 +277,104 @@
     <t>device</t>
   </si>
   <si>
-    <t>Mar 17, 2025 2:14:15 PM</t>
+    <t>Mar 17, 2025 7:15:08 PM</t>
   </si>
   <si>
-    <t>Mar 17, 2025 2:13:40 PM</t>
+    <t>Mar 17, 2025 7:14:35 PM</t>
   </si>
   <si>
-    <t>Mar 17, 2025 2:14:10 PM</t>
+    <t>Mar 17, 2025 7:15:04 PM</t>
   </si>
   <si>
-    <t>30.379 s</t>
+    <t>29.345 s</t>
   </si>
   <si>
-    <t>50%</t>
+    <t>0%</t>
   </si>
   <si>
-    <t>83%</t>
+    <t>40%</t>
   </si>
   <si>
-    <t>96%</t>
+    <t>Register New OAuth2 Application Feature</t>
   </si>
   <si>
-    <t>Login page feature</t>
+    <t>Register New OAuth2 scenario with different set of data</t>
   </si>
   <si>
-    <t>Login with correct credentials</t>
+    <t>15.342 s</t>
   </si>
   <si>
-    <t>Accounts page title</t>
+    <t>12.645 s</t>
   </si>
   <si>
-    <t>16.354 s</t>
+    <t>28.032 s</t>
   </si>
   <si>
-    <t>Account Page Feature</t>
+    <t>When user fills the form from given sheetname "OauthRegisteration" and rownumber 0</t>
   </si>
   <si>
-    <t>Accounts section count</t>
+    <t xml:space="preserve">org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//input[@name='application_name'][@tabindex='6']"}
+  (Session info: chrome=134.0.6998.89)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.29.0', revision: '5fc1ec94cb'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b6f82cc5f0bcf0dc55d8918857c2fb3b, findElement {using=xpath, value=//input[@name='application_name'][@tabindex='6']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 134.0.6998.89, chrome: {chromedriverVersion: 134.0.6998.88 (7e3d5c978c6d..., userDataDir: C:\Users\ssais\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49364}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49364/devtoo..., se:cdpVersion: 134.0.6998.89, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b6f82cc5f0bcf0dc55d8918857c2fb3b
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:77)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstanceWithCaller(Constructor.java:499)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:480)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:545)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:368)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:362)
+	at com.pageObjects.OauthRegistrationPage.fillOauthRegistrationForm(OauthRegistrationPage.java:35)
+	at steps.OauthRegisterationStepDefinition.user_fills_the_form_from_given_sheetname_and_rownumber(OauthRegisterationStepDefinition.java:44)
+	at ✽.user fills the form from given sheetname "OauthRegisteration" and rownumber 0(file:///C:/Users/ssais/git/CucumberSeleniumPOMDemo/CucumberSeleniumPOMDemo/src/test/resources/features/OauthRegisteration.feature:10)
+</t>
   </si>
   <si>
-    <t>9.400 s</t>
+    <t>When user fills the form from given sheetname "OauthRegisteration" and rownumber 1</t>
   </si>
   <si>
-    <t>Login page title</t>
-  </si>
-  <si>
-    <t>6.423 s</t>
-  </si>
-  <si>
-    <t>Forgot Password link</t>
-  </si>
-  <si>
-    <t>5.498 s</t>
-  </si>
-  <si>
-    <t>10.286 s</t>
-  </si>
-  <si>
-    <t>6.972 s</t>
-  </si>
-  <si>
-    <t>25.760 s</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>29.248 s</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>And Account page title should be "Compare B2B Software, Download, &amp; Develop Open Source &amp; Business Software - SourceForge"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">org.junit.ComparisonFailure: expected:&lt;[SourceForge.net: Log In to SourceForge.net]&gt; but was:&lt;[Compare B2B Software, Download, &amp; Develop Open Source &amp; Business Software - SourceForge]&gt;
-	at org.junit.Assert.assertEquals(Assert.java:117)
-	at org.junit.Assert.assertEquals(Assert.java:146)
-	at steps.LoginPageStepDefinitions.Account_page_title_should_be(LoginPageStepDefinitions.java:64)
-	at ✽.Account page title should be "Compare B2B Software, Download, &amp; Develop Open Source &amp; Business Software - SourceForge"(file:///C:/Users/ssais/git/CucumberSeleniumPOMDemo/CucumberSeleniumPOMDemo/src/test/resources/features/LoginPage.feature:17)
+    <t xml:space="preserve">org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//input[@name='application_name'][@tabindex='6']"}
+  (Session info: chrome=134.0.6998.89)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.29.0', revision: '5fc1ec94cb'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.7'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0330d5210eadaed0e4f4ed012aefae0c, findElement {using=xpath, value=//input[@name='application_name'][@tabindex='6']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 134.0.6998.89, chrome: {chromedriverVersion: 134.0.6998.88 (7e3d5c978c6d..., userDataDir: C:\Users\ssais\AppData\Loca...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49680}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:49680/devtoo..., se:cdpVersion: 134.0.6998.89, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0330d5210eadaed0e4f4ed012aefae0c
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance0(Native Method)
+	at java.base/jdk.internal.reflect.NativeConstructorAccessorImpl.newInstance(NativeConstructorAccessorImpl.java:77)
+	at java.base/jdk.internal.reflect.DelegatingConstructorAccessorImpl.newInstance(DelegatingConstructorAccessorImpl.java:45)
+	at java.base/java.lang.reflect.Constructor.newInstanceWithCaller(Constructor.java:499)
+	at java.base/java.lang.reflect.Constructor.newInstance(Constructor.java:480)
+	at org.openqa.selenium.remote.ErrorCodec.decode(ErrorCodec.java:167)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:138)
+	at org.openqa.selenium.remote.codec.w3c.W3CHttpResponseCodec.decode(W3CHttpResponseCodec.java:50)
+	at org.openqa.selenium.remote.HttpCommandExecutor.execute(HttpCommandExecutor.java:215)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.invokeExecute(DriverCommandExecutor.java:216)
+	at org.openqa.selenium.remote.service.DriverCommandExecutor.execute(DriverCommandExecutor.java:174)
+	at org.openqa.selenium.remote.RemoteWebDriver.execute(RemoteWebDriver.java:545)
+	at org.openqa.selenium.remote.ElementLocation$ElementFinder$2.findElement(ElementLocation.java:165)
+	at org.openqa.selenium.remote.ElementLocation.findElement(ElementLocation.java:59)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:368)
+	at org.openqa.selenium.remote.RemoteWebDriver.findElement(RemoteWebDriver.java:362)
+	at com.pageObjects.OauthRegistrationPage.fillOauthRegistrationForm(OauthRegistrationPage.java:35)
+	at steps.OauthRegisterationStepDefinition.user_fills_the_form_from_given_sheetname_and_rownumber(OauthRegisterationStepDefinition.java:44)
+	at ✽.user fills the form from given sheetname "OauthRegisteration" and rownumber 1(file:///C:/Users/ssais/git/CucumberSeleniumPOMDemo/CucumberSeleniumPOMDemo/src/test/resources/features/OauthRegisteration.feature:10)
 </t>
   </si>
 </sst>
@@ -365,7 +383,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,12 +507,12 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="FF0000"/>
+      <color rgb="FFFF0000"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="FF0000"/>
+      <color rgb="FFFF0000"/>
       <b val="true"/>
     </font>
     <font>
@@ -505,28 +523,22 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="00FF00"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <i val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="00FF00"/>
+      <color rgb="FF00FF00"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="FF0000"/>
+      <color rgb="FFFF0000"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="FFFF00"/>
+      <color rgb="FFFFFF00"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -695,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -888,7 +900,7 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true"/>
+      <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
@@ -897,9 +909,6 @@
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
-      <alignment vertical="top" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyAlignment="true" applyBorder="true" applyFont="true">
       <alignment vertical="top" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1050,7 +1059,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Login page feature</c:v>
+                  <c:v>Register New OAuth2 Application Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1058,12 +1067,7 @@
           <c:val>
             <c:numRef>
               <c:f>'DB Data'!$J$20</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1123,7 +1127,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Login page feature</c:v>
+                  <c:v>Register New OAuth2 Application Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1191,7 +1195,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Login page feature</c:v>
+                  <c:v>Register New OAuth2 Application Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1202,7 +1206,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2383,22 +2387,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Login with correct credentials</c:v>
+                  <c:v>Register New OAuth2 scenario with different set of data</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Register New OAuth2 scenario with different set of data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$R$20</c:f>
+              <c:f>'DB Data'!$R$20:$R$21</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,19 +2466,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Login with correct credentials</c:v>
+                  <c:v>Register New OAuth2 scenario with different set of data</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Register New OAuth2 scenario with different set of data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$T$20</c:f>
-              <c:numCache/>
+              <c:f>'DB Data'!$T$20:$T$21</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -2524,21 +2545,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'DB Data'!$P$20</c:f>
+              <c:f>'DB Data'!$P$20:$P$21</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Login with correct credentials</c:v>
+                  <c:v>Register New OAuth2 scenario with different set of data</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Register New OAuth2 scenario with different set of data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DB Data'!$S$20</c:f>
+              <c:f>'DB Data'!$S$20:$S$21</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3504,52 +3531,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$27</c:f>
+              <c:f>Scenarios!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Accounts page title</c:v>
+                  <c:v>Register New OAuth2 scenario with different set of data</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Accounts section count</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Login page title</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Forgot Password link</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Login with correct credentials</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Login with correct credentials</c:v>
+                  <c:v>Register New OAuth2 scenario with different set of data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$H$22:$H$27</c:f>
+              <c:f>Scenarios!$H$22:$H$23</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3606,34 +3609,30 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$27</c:f>
+              <c:f>Scenarios!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Accounts page title</c:v>
+                  <c:v>Register New OAuth2 scenario with different set of data</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Accounts section count</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Login page title</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Forgot Password link</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Login with correct credentials</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Login with correct credentials</c:v>
+                  <c:v>Register New OAuth2 scenario with different set of data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$J$22:$J$27</c:f>
-              <c:numCache/>
+              <c:f>Scenarios!$J$22:$J$23</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3698,36 +3697,27 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Scenarios!$B$22:$B$27</c:f>
+              <c:f>Scenarios!$B$22:$B$23</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Accounts page title</c:v>
+                  <c:v>Register New OAuth2 scenario with different set of data</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Accounts section count</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Login page title</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Forgot Password link</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Login with correct credentials</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Login with correct credentials</c:v>
+                  <c:v>Register New OAuth2 scenario with different set of data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scenarios!$I$22:$I$27</c:f>
+              <c:f>Scenarios!$I$22:$I$23</c:f>
               <c:numCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="5">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4530,30 +4520,19 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$23</c:f>
+              <c:f>Features!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Account Page Feature</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Login page feature</c:v>
+                  <c:v>Register New OAuth2 Application Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$F$22:$F$23</c:f>
-              <c:numCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Features!$F$22</c:f>
+              <c:numCache/>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -4608,21 +4587,18 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$23</c:f>
+              <c:f>Features!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Account Page Feature</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Login page feature</c:v>
+                  <c:v>Register New OAuth2 Application Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$H$22:$H$23</c:f>
+              <c:f>Features!$H$22</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -4678,25 +4654,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Features!$B$22:$B$23</c:f>
+              <c:f>Features!$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Account Page Feature</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Login page feature</c:v>
+                  <c:v>Register New OAuth2 Application Feature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Features!$G$22:$G$23</c:f>
+              <c:f>Features!$G$22</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8299,7 +8272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B37:G39"/>
+  <dimension ref="B37:G40"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -8337,27 +8310,41 @@
     </row>
     <row r="39">
       <c r="B39" s="71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="69"/>
       <c r="D39" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F39" s="69"/>
       <c r="G39" s="72" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="40">
+      <c r="B40" s="69"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="69"/>
+      <c r="G40" s="72" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="true" password="94DF" scenarios="true" objects="true"/>
-  <mergeCells count="4">
+  <sheetProtection sheet="true" password="D3E5" scenarios="true" objects="true"/>
+  <mergeCells count="6">
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B39:C40"/>
+    <mergeCell ref="D39:D40"/>
     <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8367,7 +8354,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:J27"/>
+  <dimension ref="B20:J23"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -8433,155 +8420,61 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="75" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>76</v>
       </c>
       <c r="E22" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="74" t="s">
-        <v>49</v>
+        <v>74</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>41</v>
       </c>
       <c r="G22" s="70" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H22" s="76" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
+        <v>5.0</v>
+      </c>
+      <c r="H22" s="75" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I22" s="76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="77" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="74" t="s">
+        <v>77</v>
       </c>
       <c r="E23" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="74" t="s">
-        <v>49</v>
+        <v>74</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>41</v>
       </c>
       <c r="G23" s="70" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H23" s="76" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="70" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H24" s="76" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H23" s="75" t="n">
         <v>2.0</v>
       </c>
-      <c r="H25" s="76" t="n">
+      <c r="I23" s="76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="77" t="n">
         <v>2.0</v>
       </c>
-      <c r="I25" s="77"/>
-      <c r="J25" s="78"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="70" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H26" s="76" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I26" s="77"/>
-      <c r="J26" s="78"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="70" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H27" s="76" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I27" s="77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J27" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8597,7 +8490,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B18:M23"/>
+  <dimension ref="B18:M22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="21.0" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -8677,67 +8570,37 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="75" t="s">
-        <v>88</v>
+        <v>74</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>78</v>
       </c>
       <c r="E22" s="70" t="n">
         <v>2.0</v>
       </c>
-      <c r="F22" s="76" t="n">
+      <c r="F22" s="75"/>
+      <c r="G22" s="76" t="n">
         <v>2.0</v>
       </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="79" t="s">
-        <v>89</v>
+      <c r="H22" s="77"/>
+      <c r="I22" s="78" t="s">
+        <v>72</v>
       </c>
       <c r="J22" s="70" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K22" s="76" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L22" s="77"/>
-      <c r="M22" s="78"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="K22" s="75" t="n">
         <v>4.0</v>
       </c>
-      <c r="F23" s="76" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G23" s="77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H23" s="78"/>
-      <c r="I23" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="70" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="K23" s="76" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L23" s="77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="78"/>
+      <c r="L22" s="76" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M22" s="77" t="n">
+        <v>4.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8753,7 +8616,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B2:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="2.0" state="frozen" topLeftCell="A3" activePane="bottomLeft"/>
@@ -8784,20 +8647,35 @@
     </row>
     <row r="3">
       <c r="B3" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="71" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" s="71" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>93</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="69"/>
+      <c r="C4" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" password="E0A5" scenarios="true" objects="true"/>
+  <sheetProtection sheet="true" password="C287" scenarios="true" objects="true"/>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8852,20 +8730,16 @@
       <c r="C2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="D2" t="n" s="0">
-        <v>1.0</v>
-      </c>
+      <c r="D2" s="0"/>
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F2" t="n" s="0">
-        <v>5.0</v>
-      </c>
+      <c r="F2" s="0"/>
       <c r="G2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>22.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8885,13 +8759,13 @@
         <v>10</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -8912,7 +8786,9 @@
       <c r="G4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="H4" s="0"/>
+      <c r="H4" t="n" s="0">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="0">
@@ -8926,21 +8802,21 @@
       </c>
       <c r="D5" t="n" s="0">
         <f>SUM(D2:D4)</f>
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="F5" t="n" s="0">
         <f>SUM(F2:F4)</f>
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H5" t="n" s="0">
         <f>SUM(H2:H4)</f>
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -8954,10 +8830,10 @@
         <v>72</v>
       </c>
       <c r="F6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="39" t="s">
         <v>73</v>
-      </c>
-      <c r="H6" s="39" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -9029,31 +8905,48 @@
         <v>1</v>
       </c>
       <c r="H20" s="69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I20" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="70" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="J20" s="70"/>
       <c r="K20" s="70" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L20" s="70"/>
       <c r="P20" s="69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="69" t="s">
         <v>41</v>
       </c>
       <c r="R20" s="70" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="S20" s="70" t="n">
         <v>1.0</v>
       </c>
-      <c r="T20" s="70"/>
+      <c r="T20" s="70" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="P21" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q21" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21" s="70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S21" s="70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T21" s="70" t="n">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
